--- a/data/pca/factorExposure/factorExposure_2019-03-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1208191881452647</v>
+        <v>-0.07427543009357314</v>
       </c>
       <c r="C2">
-        <v>-0.008999258087202106</v>
+        <v>-0.03080332348812458</v>
       </c>
       <c r="D2">
-        <v>-0.04737760433577042</v>
+        <v>-0.02138662050181552</v>
       </c>
       <c r="E2">
-        <v>0.1261255256709812</v>
+        <v>0.04182698925234229</v>
       </c>
       <c r="F2">
-        <v>-0.08463415626309224</v>
+        <v>-0.1406852818047319</v>
       </c>
       <c r="G2">
-        <v>0.07466746195085594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1073111988179874</v>
+      </c>
+      <c r="H2">
+        <v>-0.06323995916640894</v>
+      </c>
+      <c r="I2">
+        <v>-0.03623509755623636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2152816035934843</v>
+        <v>-0.1651848447393211</v>
       </c>
       <c r="C3">
-        <v>-0.1530538230096472</v>
+        <v>-0.1082501353801976</v>
       </c>
       <c r="D3">
-        <v>0.03696324628002218</v>
+        <v>0.008331841817717397</v>
       </c>
       <c r="E3">
-        <v>0.3278955619784576</v>
+        <v>-0.002470776480967606</v>
       </c>
       <c r="F3">
-        <v>0.02930988559062987</v>
+        <v>-0.3676909337508606</v>
       </c>
       <c r="G3">
-        <v>0.08509717049570203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09254200540269887</v>
+      </c>
+      <c r="H3">
+        <v>-0.2849343155885675</v>
+      </c>
+      <c r="I3">
+        <v>-0.2079481262284479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09534149597160527</v>
+        <v>-0.07287592326990723</v>
       </c>
       <c r="C4">
-        <v>-0.04384345418528993</v>
+        <v>-0.04669187659984449</v>
       </c>
       <c r="D4">
-        <v>-0.02483738930329053</v>
+        <v>0.01570882988398847</v>
       </c>
       <c r="E4">
-        <v>0.07456213021239481</v>
+        <v>0.03966535258289989</v>
       </c>
       <c r="F4">
-        <v>-0.01459466734024086</v>
+        <v>-0.0812382387961255</v>
       </c>
       <c r="G4">
-        <v>0.03945643667915594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04502615497506046</v>
+      </c>
+      <c r="H4">
+        <v>-0.02391836048076891</v>
+      </c>
+      <c r="I4">
+        <v>-0.0323387965888737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01786651873444376</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.0129135101367939</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.006271538947968394</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005944570146540295</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.004111050445110702</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02109475663971603</v>
+      </c>
+      <c r="H6">
+        <v>0.001941935661357167</v>
+      </c>
+      <c r="I6">
+        <v>0.01508445615076335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04250001770043925</v>
+        <v>-0.03454318265961213</v>
       </c>
       <c r="C7">
-        <v>-0.01408786574822097</v>
+        <v>-0.01600323195993382</v>
       </c>
       <c r="D7">
-        <v>-0.03532684977472903</v>
+        <v>0.03642721456430038</v>
       </c>
       <c r="E7">
-        <v>0.07546024290184285</v>
+        <v>0.02955311362348864</v>
       </c>
       <c r="F7">
-        <v>0.0484186783163733</v>
+        <v>-0.05352654921925237</v>
       </c>
       <c r="G7">
-        <v>-0.02677232105732287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005736610322864585</v>
+      </c>
+      <c r="H7">
+        <v>-0.04607135968937499</v>
+      </c>
+      <c r="I7">
+        <v>-0.002818095937628168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04436336050147581</v>
+        <v>-0.02950814032433112</v>
       </c>
       <c r="C8">
-        <v>-0.05470265199023825</v>
+        <v>-0.05055429365340666</v>
       </c>
       <c r="D8">
-        <v>-0.005354814755735391</v>
+        <v>0.01464986921393244</v>
       </c>
       <c r="E8">
-        <v>0.0729693318887228</v>
+        <v>0.02073684647551877</v>
       </c>
       <c r="F8">
-        <v>0.003337272678964021</v>
+        <v>-0.07045892270835306</v>
       </c>
       <c r="G8">
-        <v>0.01531036937259375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02084419014388389</v>
+      </c>
+      <c r="H8">
+        <v>-0.04380238478441816</v>
+      </c>
+      <c r="I8">
+        <v>-0.03841472664769945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0835815402246209</v>
+        <v>-0.06049738269892891</v>
       </c>
       <c r="C9">
-        <v>-0.03976536586198318</v>
+        <v>-0.04156207382661945</v>
       </c>
       <c r="D9">
-        <v>-0.03244982939955608</v>
+        <v>0.01945663642654268</v>
       </c>
       <c r="E9">
-        <v>0.06086713086423603</v>
+        <v>0.03490941424467651</v>
       </c>
       <c r="F9">
-        <v>-0.0002188130646632139</v>
+        <v>-0.08047027049160152</v>
       </c>
       <c r="G9">
-        <v>0.04682852413037575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04232889724229357</v>
+      </c>
+      <c r="H9">
+        <v>-0.02197923620109864</v>
+      </c>
+      <c r="I9">
+        <v>-0.01591865436650281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01744106462578092</v>
+        <v>-0.03172542221915032</v>
       </c>
       <c r="C10">
-        <v>0.158203983014321</v>
+        <v>0.1523272003526754</v>
       </c>
       <c r="D10">
-        <v>0.03767204231393561</v>
+        <v>-0.01403122643674779</v>
       </c>
       <c r="E10">
-        <v>0.06714696210653304</v>
+        <v>-0.03769743592265646</v>
       </c>
       <c r="F10">
-        <v>-0.01546332890021374</v>
+        <v>-0.06838808138275142</v>
       </c>
       <c r="G10">
-        <v>-0.004522761296467994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02356719958239938</v>
+      </c>
+      <c r="H10">
+        <v>-0.003429727839359637</v>
+      </c>
+      <c r="I10">
+        <v>-0.1093317950069162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05862258571708801</v>
+        <v>-0.04937817518095147</v>
       </c>
       <c r="C11">
-        <v>-0.01521221008765881</v>
+        <v>-0.03096277252302454</v>
       </c>
       <c r="D11">
-        <v>0.006583535724040536</v>
+        <v>-0.005225266473192295</v>
       </c>
       <c r="E11">
-        <v>0.04407860964963684</v>
+        <v>0.0092665383280484</v>
       </c>
       <c r="F11">
-        <v>-0.007301199046930456</v>
+        <v>-0.04043328983459073</v>
       </c>
       <c r="G11">
-        <v>-0.009384078750540143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006493872699419598</v>
+      </c>
+      <c r="H11">
+        <v>-0.002078367106870121</v>
+      </c>
+      <c r="I11">
+        <v>0.01036621151904589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04500413748199074</v>
+        <v>-0.04617214464276693</v>
       </c>
       <c r="C12">
-        <v>-0.01818389544933717</v>
+        <v>-0.02706279678456952</v>
       </c>
       <c r="D12">
-        <v>0.002420805796060025</v>
+        <v>0.005568375438910395</v>
       </c>
       <c r="E12">
-        <v>0.03032060622554927</v>
+        <v>0.01144125503952056</v>
       </c>
       <c r="F12">
-        <v>0.01046443910266143</v>
+        <v>-0.01566472115167103</v>
       </c>
       <c r="G12">
-        <v>0.0008944200836424084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002691495414224087</v>
+      </c>
+      <c r="H12">
+        <v>-0.003930113084444502</v>
+      </c>
+      <c r="I12">
+        <v>0.007368262165010052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06318621048106</v>
+        <v>-0.04185844935328182</v>
       </c>
       <c r="C13">
-        <v>-0.0278979037214115</v>
+        <v>-0.02796768672432917</v>
       </c>
       <c r="D13">
-        <v>0.008675997451904312</v>
+        <v>-0.01417343941148146</v>
       </c>
       <c r="E13">
-        <v>0.1106574673799254</v>
+        <v>0.009391613612119678</v>
       </c>
       <c r="F13">
-        <v>-0.01080737979399652</v>
+        <v>-0.1044888555004073</v>
       </c>
       <c r="G13">
-        <v>0.008794184947547861</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02334051195511394</v>
+      </c>
+      <c r="H13">
+        <v>-0.04655604992972191</v>
+      </c>
+      <c r="I13">
+        <v>-0.01222456124911651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0335473406918366</v>
+        <v>-0.02816629749608887</v>
       </c>
       <c r="C14">
-        <v>-0.02038537760389728</v>
+        <v>-0.01868652096834465</v>
       </c>
       <c r="D14">
-        <v>-0.02711555877805259</v>
+        <v>0.005819462576842336</v>
       </c>
       <c r="E14">
-        <v>0.0331602520333452</v>
+        <v>0.02634988264533168</v>
       </c>
       <c r="F14">
-        <v>-0.01978722723220413</v>
+        <v>-0.03958424278458708</v>
       </c>
       <c r="G14">
-        <v>-0.0167424199417363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02879343769845311</v>
+      </c>
+      <c r="H14">
+        <v>-0.05193550517541039</v>
+      </c>
+      <c r="I14">
+        <v>-0.009476326416128479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04783829063146636</v>
+        <v>-0.04337536450286696</v>
       </c>
       <c r="C16">
-        <v>-0.02837440467852784</v>
+        <v>-0.03823590454719358</v>
       </c>
       <c r="D16">
-        <v>0.009693094090706183</v>
+        <v>0.001114539200738338</v>
       </c>
       <c r="E16">
-        <v>0.03359469349498315</v>
+        <v>0.006402578561835259</v>
       </c>
       <c r="F16">
-        <v>0.008436142251412836</v>
+        <v>-0.03401886259176892</v>
       </c>
       <c r="G16">
-        <v>-0.009160671094530809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005702201584829878</v>
+      </c>
+      <c r="H16">
+        <v>-0.00862628344432899</v>
+      </c>
+      <c r="I16">
+        <v>0.00887657349762285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05369170173633428</v>
+        <v>-0.04765605170840101</v>
       </c>
       <c r="C19">
-        <v>-0.04582396418397904</v>
+        <v>-0.0461259716832206</v>
       </c>
       <c r="D19">
-        <v>0.0006873428344584376</v>
+        <v>0.0006368711926059329</v>
       </c>
       <c r="E19">
-        <v>0.07823745166555408</v>
+        <v>0.02144436459133064</v>
       </c>
       <c r="F19">
-        <v>0.009579800086086844</v>
+        <v>-0.0790521100007773</v>
       </c>
       <c r="G19">
-        <v>-0.02909082812904683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01037820547283689</v>
+      </c>
+      <c r="H19">
+        <v>-0.08231695656603158</v>
+      </c>
+      <c r="I19">
+        <v>-0.03529625224519767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03430123806909421</v>
+        <v>-0.01798844311857694</v>
       </c>
       <c r="C20">
-        <v>-0.04277492589605796</v>
+        <v>-0.02981287292505886</v>
       </c>
       <c r="D20">
-        <v>-0.01201363213912461</v>
+        <v>0.007981678244451946</v>
       </c>
       <c r="E20">
-        <v>0.06802842382466916</v>
+        <v>0.01964513972269389</v>
       </c>
       <c r="F20">
-        <v>0.01042057373355126</v>
+        <v>-0.06458770758006661</v>
       </c>
       <c r="G20">
-        <v>-0.009971162267091266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01406167034180222</v>
+      </c>
+      <c r="H20">
+        <v>-0.07044526660942629</v>
+      </c>
+      <c r="I20">
+        <v>-0.02732551939242317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0382053108085767</v>
+        <v>-0.02625676470114359</v>
       </c>
       <c r="C21">
-        <v>-0.03313341429615171</v>
+        <v>-0.03292655076695952</v>
       </c>
       <c r="D21">
-        <v>0.0001358316199345186</v>
+        <v>0.01501445422983236</v>
       </c>
       <c r="E21">
-        <v>0.107865389394151</v>
+        <v>0.008925687871732941</v>
       </c>
       <c r="F21">
-        <v>-0.03865466513901365</v>
+        <v>-0.07790428060397986</v>
       </c>
       <c r="G21">
-        <v>0.0242132347108146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03600635467256179</v>
+      </c>
+      <c r="H21">
+        <v>-0.0244159372707226</v>
+      </c>
+      <c r="I21">
+        <v>0.01066266451178166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05107915822408891</v>
+        <v>-0.04270107594260605</v>
       </c>
       <c r="C24">
-        <v>-0.02306116558978747</v>
+        <v>-0.02704951563722132</v>
       </c>
       <c r="D24">
-        <v>0.001361778181224774</v>
+        <v>0.0003663513969578923</v>
       </c>
       <c r="E24">
-        <v>0.04595815968243035</v>
+        <v>0.01142566784981999</v>
       </c>
       <c r="F24">
-        <v>0.01086669379934932</v>
+        <v>-0.04124853577748505</v>
       </c>
       <c r="G24">
-        <v>0.0001320779226517554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004791896263542977</v>
+      </c>
+      <c r="H24">
+        <v>-0.007641025584251221</v>
+      </c>
+      <c r="I24">
+        <v>0.006806537710844771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05241689029869904</v>
+        <v>-0.04570915919781264</v>
       </c>
       <c r="C25">
-        <v>-0.01072796749331631</v>
+        <v>-0.02553909559767755</v>
       </c>
       <c r="D25">
-        <v>0.004269629612767268</v>
+        <v>-0.0006693494047786984</v>
       </c>
       <c r="E25">
-        <v>0.04246853764924807</v>
+        <v>0.008957391932166119</v>
       </c>
       <c r="F25">
-        <v>-0.004926652776213789</v>
+        <v>-0.04447634282183364</v>
       </c>
       <c r="G25">
-        <v>0.0005187115039700395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004868351890242399</v>
+      </c>
+      <c r="H25">
+        <v>0.001200743866022673</v>
+      </c>
+      <c r="I25">
+        <v>0.01222640544743264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01910736923160186</v>
+        <v>-0.01616643081817484</v>
       </c>
       <c r="C26">
-        <v>-0.02806487197799357</v>
+        <v>-0.02489301820935825</v>
       </c>
       <c r="D26">
-        <v>-0.003324735131358487</v>
+        <v>-0.002962620027426366</v>
       </c>
       <c r="E26">
-        <v>0.03885089812315536</v>
+        <v>0.0004136780242605551</v>
       </c>
       <c r="F26">
-        <v>-0.02737252075213534</v>
+        <v>-0.04627516900364857</v>
       </c>
       <c r="G26">
-        <v>-0.01395493510095128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02238213702433504</v>
+      </c>
+      <c r="H26">
+        <v>-0.03220704788435436</v>
+      </c>
+      <c r="I26">
+        <v>0.005795824055391668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.114175931223464</v>
+        <v>-0.0747905420620253</v>
       </c>
       <c r="C27">
-        <v>-0.03478893581932374</v>
+        <v>-0.03058939407405839</v>
       </c>
       <c r="D27">
-        <v>-0.02352253141972973</v>
+        <v>0.00563846045513728</v>
       </c>
       <c r="E27">
-        <v>0.09721313575073381</v>
+        <v>0.03507407848643432</v>
       </c>
       <c r="F27">
-        <v>-0.0003295431968050461</v>
+        <v>-0.06846088610903989</v>
       </c>
       <c r="G27">
-        <v>0.01752821611334485</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01868452468043734</v>
+      </c>
+      <c r="H27">
+        <v>-0.01386771328127983</v>
+      </c>
+      <c r="I27">
+        <v>-0.02470451008752973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01330163530094794</v>
+        <v>-0.04823768325414867</v>
       </c>
       <c r="C28">
-        <v>0.2400123760089378</v>
+        <v>0.2339501336486331</v>
       </c>
       <c r="D28">
-        <v>0.03984887244912091</v>
+        <v>-0.01151354778577572</v>
       </c>
       <c r="E28">
-        <v>0.04674388538041928</v>
+        <v>-0.05582412263465408</v>
       </c>
       <c r="F28">
-        <v>-0.02737368885449061</v>
+        <v>-0.05968748909919393</v>
       </c>
       <c r="G28">
-        <v>0.01010200127465024</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02401096403669241</v>
+      </c>
+      <c r="H28">
+        <v>0.000850606377018707</v>
+      </c>
+      <c r="I28">
+        <v>-0.1607623998430128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02297409714564154</v>
+        <v>-0.02320538015153008</v>
       </c>
       <c r="C29">
-        <v>-0.02383577789505375</v>
+        <v>-0.01779952509387782</v>
       </c>
       <c r="D29">
-        <v>-0.0291115493465327</v>
+        <v>0.009855616068616232</v>
       </c>
       <c r="E29">
-        <v>0.03424921235042977</v>
+        <v>0.02654125346728418</v>
       </c>
       <c r="F29">
-        <v>-0.0172314163237504</v>
+        <v>-0.03388541921578492</v>
       </c>
       <c r="G29">
-        <v>-0.005201449813277306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02978240728900309</v>
+      </c>
+      <c r="H29">
+        <v>-0.04985609395449351</v>
+      </c>
+      <c r="I29">
+        <v>-0.004251887126190547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1148537265854936</v>
+        <v>-0.09047509391296245</v>
       </c>
       <c r="C30">
-        <v>-0.02153910405965036</v>
+        <v>-0.05104575125186148</v>
       </c>
       <c r="D30">
-        <v>-0.02591406236169667</v>
+        <v>-0.03578194822133524</v>
       </c>
       <c r="E30">
-        <v>0.1126699379991228</v>
+        <v>0.03264699073458431</v>
       </c>
       <c r="F30">
-        <v>0.004242670485370727</v>
+        <v>-0.1033550484418571</v>
       </c>
       <c r="G30">
-        <v>-0.0209976880438765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01397465355885994</v>
+      </c>
+      <c r="H30">
+        <v>-0.02248241046059303</v>
+      </c>
+      <c r="I30">
+        <v>0.01254960400065454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06680406965804196</v>
+        <v>-0.06213906402826633</v>
       </c>
       <c r="C31">
-        <v>-0.0148165681928906</v>
+        <v>-0.02240521953711847</v>
       </c>
       <c r="D31">
-        <v>-0.01624625683765265</v>
+        <v>-0.01054150557873143</v>
       </c>
       <c r="E31">
-        <v>-0.01714447725713488</v>
+        <v>0.02232265605379436</v>
       </c>
       <c r="F31">
-        <v>-0.0356515364694614</v>
+        <v>-0.00177509327915406</v>
       </c>
       <c r="G31">
-        <v>-0.04621402572677999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04159687176695234</v>
+      </c>
+      <c r="H31">
+        <v>-0.02974767167711017</v>
+      </c>
+      <c r="I31">
+        <v>-0.01304486053937106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06424659785035444</v>
+        <v>-0.04324452060074616</v>
       </c>
       <c r="C32">
-        <v>-0.04117293907012079</v>
+        <v>-0.05208253405618692</v>
       </c>
       <c r="D32">
-        <v>-0.01451816506911712</v>
+        <v>0.01689864516015758</v>
       </c>
       <c r="E32">
-        <v>0.1077882982117031</v>
+        <v>0.03273970264763035</v>
       </c>
       <c r="F32">
-        <v>0.007211401728745584</v>
+        <v>-0.08632097433499782</v>
       </c>
       <c r="G32">
-        <v>-0.0175833388022318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01319616780109525</v>
+      </c>
+      <c r="H32">
+        <v>-0.03820439928578247</v>
+      </c>
+      <c r="I32">
+        <v>-0.02447404181670369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06821349709768423</v>
+        <v>-0.05660614005202698</v>
       </c>
       <c r="C33">
-        <v>-0.04568395416674222</v>
+        <v>-0.05341005166299317</v>
       </c>
       <c r="D33">
-        <v>-0.01018055777168041</v>
+        <v>-0.01656088737009434</v>
       </c>
       <c r="E33">
-        <v>0.07606985226201819</v>
+        <v>0.01335583963377547</v>
       </c>
       <c r="F33">
-        <v>-0.04439970191854756</v>
+        <v>-0.0749318011007416</v>
       </c>
       <c r="G33">
-        <v>0.006879285112024348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03628238541937297</v>
+      </c>
+      <c r="H33">
+        <v>-0.03938428336670396</v>
+      </c>
+      <c r="I33">
+        <v>0.007610274686040731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04845376816987852</v>
+        <v>-0.04433824084602217</v>
       </c>
       <c r="C34">
-        <v>-0.02189163806799951</v>
+        <v>-0.03313906607304924</v>
       </c>
       <c r="D34">
-        <v>-0.002091707821968802</v>
+        <v>0.005333828854646595</v>
       </c>
       <c r="E34">
-        <v>0.02850729220378465</v>
+        <v>0.01689384175274833</v>
       </c>
       <c r="F34">
-        <v>0.006706706447443637</v>
+        <v>-0.03129507886550444</v>
       </c>
       <c r="G34">
-        <v>-0.006727939547634258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0001644947613340516</v>
+      </c>
+      <c r="H34">
+        <v>-0.01095669349446673</v>
+      </c>
+      <c r="I34">
+        <v>0.006349108487525966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01297522778113458</v>
+        <v>-0.01541686959003844</v>
       </c>
       <c r="C36">
-        <v>-1.684726590005032e-05</v>
+        <v>-0.002447999695377525</v>
       </c>
       <c r="D36">
-        <v>-0.006509128754311874</v>
+        <v>0.004694783754703457</v>
       </c>
       <c r="E36">
-        <v>0.02398797032837306</v>
+        <v>0.01032021087908705</v>
       </c>
       <c r="F36">
-        <v>-0.01414095388434623</v>
+        <v>-0.02658255865650625</v>
       </c>
       <c r="G36">
-        <v>-0.01067388446138387</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02400604646046878</v>
+      </c>
+      <c r="H36">
+        <v>-0.02828577097308985</v>
+      </c>
+      <c r="I36">
+        <v>0.004834097919865555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.05154714225205601</v>
+        <v>-0.03536884248304357</v>
       </c>
       <c r="C38">
-        <v>-0.01568045547537017</v>
+        <v>-0.01388753538791093</v>
       </c>
       <c r="D38">
-        <v>-0.02485824103547433</v>
+        <v>0.00369794789671415</v>
       </c>
       <c r="E38">
-        <v>0.02439338550142374</v>
+        <v>0.01308137288007919</v>
       </c>
       <c r="F38">
-        <v>0.009588367836197249</v>
+        <v>-0.04728595011104116</v>
       </c>
       <c r="G38">
-        <v>0.02764803741592708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02868645245302544</v>
+      </c>
+      <c r="H38">
+        <v>-0.01417307076192316</v>
+      </c>
+      <c r="I38">
+        <v>0.01236041989434189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07416961705894175</v>
+        <v>-0.05688500398540442</v>
       </c>
       <c r="C39">
-        <v>-0.02029202541671599</v>
+        <v>-0.04518183301535019</v>
       </c>
       <c r="D39">
-        <v>-0.003669247213691742</v>
+        <v>-0.003350086735588628</v>
       </c>
       <c r="E39">
-        <v>0.04331739037726737</v>
+        <v>0.01830718444725945</v>
       </c>
       <c r="F39">
-        <v>-0.01185969515777368</v>
+        <v>-0.05521930868450797</v>
       </c>
       <c r="G39">
-        <v>0.004628830914716307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01673362602993896</v>
+      </c>
+      <c r="H39">
+        <v>-0.001319988293343664</v>
+      </c>
+      <c r="I39">
+        <v>0.02960812308640435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07793914398418593</v>
+        <v>-0.05670353641129063</v>
       </c>
       <c r="C40">
-        <v>-0.04364488395944055</v>
+        <v>-0.04317437576078851</v>
       </c>
       <c r="D40">
-        <v>-0.007556108440227322</v>
+        <v>-0.01939697521728443</v>
       </c>
       <c r="E40">
-        <v>0.1072340368008626</v>
+        <v>0.02527134008179029</v>
       </c>
       <c r="F40">
-        <v>-0.01138815637410682</v>
+        <v>-0.09384797199001622</v>
       </c>
       <c r="G40">
-        <v>0.03150903777816916</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02427081977042032</v>
+      </c>
+      <c r="H40">
+        <v>-0.05246499727441964</v>
+      </c>
+      <c r="I40">
+        <v>-0.02146310921394122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.002140129689731518</v>
+        <v>-0.003644115482987933</v>
       </c>
       <c r="C41">
-        <v>-0.02150019144769208</v>
+        <v>-0.01241438935473221</v>
       </c>
       <c r="D41">
-        <v>-0.02746044095047465</v>
+        <v>0.000514988938301033</v>
       </c>
       <c r="E41">
-        <v>0.01398533120135725</v>
+        <v>0.01005487502586077</v>
       </c>
       <c r="F41">
-        <v>-0.03403338693809191</v>
+        <v>-0.01309823642833268</v>
       </c>
       <c r="G41">
-        <v>-0.004219338018215698</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03644135599685965</v>
+      </c>
+      <c r="H41">
+        <v>-0.03030186380017381</v>
+      </c>
+      <c r="I41">
+        <v>-0.02495369442415786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1344002874486606</v>
+        <v>-0.2188539821271558</v>
       </c>
       <c r="C42">
-        <v>-0.2437748353547149</v>
+        <v>-0.2629178090302412</v>
       </c>
       <c r="D42">
-        <v>0.9170604390287675</v>
+        <v>-0.03541937305659908</v>
       </c>
       <c r="E42">
-        <v>-0.1177138242322525</v>
+        <v>-0.9102249507771243</v>
       </c>
       <c r="F42">
-        <v>-0.02604520526413404</v>
+        <v>0.1559595117459562</v>
       </c>
       <c r="G42">
-        <v>-0.1262160282804085</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.0006338386301038919</v>
+      </c>
+      <c r="H42">
+        <v>0.003457853568402332</v>
+      </c>
+      <c r="I42">
+        <v>-0.0524856608380579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.003595968113444554</v>
+        <v>-0.006299625368201285</v>
       </c>
       <c r="C43">
-        <v>-0.02209078648621899</v>
+        <v>-0.01463951113920263</v>
       </c>
       <c r="D43">
-        <v>-0.01791857957988183</v>
+        <v>-0.001728468624908121</v>
       </c>
       <c r="E43">
-        <v>0.03725873835183007</v>
+        <v>0.00988622039538453</v>
       </c>
       <c r="F43">
-        <v>-0.01589253325375993</v>
+        <v>-0.02764830505852246</v>
       </c>
       <c r="G43">
-        <v>-0.01552740412709982</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02135647658224369</v>
+      </c>
+      <c r="H43">
+        <v>-0.03002248520899294</v>
+      </c>
+      <c r="I43">
+        <v>-0.01501071612501199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04179900912760669</v>
+        <v>-0.03001452901878055</v>
       </c>
       <c r="C44">
-        <v>-0.05248899166604937</v>
+        <v>-0.04353060095436428</v>
       </c>
       <c r="D44">
-        <v>-0.01590904270436664</v>
+        <v>0.003277252381539586</v>
       </c>
       <c r="E44">
-        <v>0.1263743343197721</v>
+        <v>0.01182297905877136</v>
       </c>
       <c r="F44">
-        <v>-0.08507721864934291</v>
+        <v>-0.1198792374256409</v>
       </c>
       <c r="G44">
-        <v>0.01189160931302813</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06225542722526983</v>
+      </c>
+      <c r="H44">
+        <v>-0.104226137803839</v>
+      </c>
+      <c r="I44">
+        <v>-0.02369129601654308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02914392676926766</v>
+        <v>-0.02541918180038111</v>
       </c>
       <c r="C46">
-        <v>-0.0248400179445977</v>
+        <v>-0.0343481661909471</v>
       </c>
       <c r="D46">
-        <v>-0.03035648762792944</v>
+        <v>-0.001277481933398876</v>
       </c>
       <c r="E46">
-        <v>0.03594492252997114</v>
+        <v>0.02978550729106877</v>
       </c>
       <c r="F46">
-        <v>-0.0327298177242065</v>
+        <v>-0.047020191685157</v>
       </c>
       <c r="G46">
-        <v>-0.009011234515448569</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02651432776530819</v>
+      </c>
+      <c r="H46">
+        <v>-0.05103982324398598</v>
+      </c>
+      <c r="I46">
+        <v>-0.001798507426005923</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09038433506405928</v>
+        <v>-0.09067200811597524</v>
       </c>
       <c r="C47">
-        <v>-0.0131567370387234</v>
+        <v>-0.0174200265705682</v>
       </c>
       <c r="D47">
-        <v>-0.0160740021477972</v>
+        <v>-0.005527058366119047</v>
       </c>
       <c r="E47">
-        <v>-0.02060812824427032</v>
+        <v>0.02517996117347973</v>
       </c>
       <c r="F47">
-        <v>-0.01796114509941815</v>
+        <v>0.01126385837982091</v>
       </c>
       <c r="G47">
-        <v>-0.01827226415322033</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04136168266927937</v>
+      </c>
+      <c r="H47">
+        <v>-0.05399356324678072</v>
+      </c>
+      <c r="I47">
+        <v>-0.02221356348317961</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01839945451332705</v>
+        <v>-0.01879335519768842</v>
       </c>
       <c r="C48">
-        <v>-0.023395444007316</v>
+        <v>-0.01912299702928514</v>
       </c>
       <c r="D48">
-        <v>-0.01465313805390452</v>
+        <v>0.002050594406684111</v>
       </c>
       <c r="E48">
-        <v>0.03127621820510061</v>
+        <v>0.01394734740869212</v>
       </c>
       <c r="F48">
-        <v>-0.01011924205802988</v>
+        <v>-0.02933523843925955</v>
       </c>
       <c r="G48">
-        <v>-0.001203296056049708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01538392255575735</v>
+      </c>
+      <c r="H48">
+        <v>-0.02121152652662395</v>
+      </c>
+      <c r="I48">
+        <v>-0.01237143190727985</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09439640172389706</v>
+        <v>-0.09038759117401159</v>
       </c>
       <c r="C50">
-        <v>-0.03656537988866718</v>
+        <v>-0.03728056025695278</v>
       </c>
       <c r="D50">
-        <v>-0.02750999096869274</v>
+        <v>0.01075963334973733</v>
       </c>
       <c r="E50">
-        <v>-0.01801744742509225</v>
+        <v>0.02661737755356273</v>
       </c>
       <c r="F50">
-        <v>-0.01774476952084184</v>
+        <v>0.007977125623930657</v>
       </c>
       <c r="G50">
-        <v>-0.05054539202548569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0008383645198970667</v>
+      </c>
+      <c r="H50">
+        <v>-0.0347680618862717</v>
+      </c>
+      <c r="I50">
+        <v>0.003027076527103529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05479317351254474</v>
+        <v>-0.03863660049306977</v>
       </c>
       <c r="C51">
-        <v>0.02171064057579725</v>
+        <v>0.005954156114128145</v>
       </c>
       <c r="D51">
-        <v>0.004290233685092635</v>
+        <v>-0.01257143400083423</v>
       </c>
       <c r="E51">
-        <v>0.08166407264170911</v>
+        <v>0.008203627853828116</v>
       </c>
       <c r="F51">
-        <v>-0.06516633851582866</v>
+        <v>-0.09796531420084786</v>
       </c>
       <c r="G51">
-        <v>-0.02165012092737992</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05359063310790845</v>
+      </c>
+      <c r="H51">
+        <v>-0.05439504283486556</v>
+      </c>
+      <c r="I51">
+        <v>-0.02077071483876151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1422872712292683</v>
+        <v>-0.1253791263577395</v>
       </c>
       <c r="C53">
-        <v>-0.01347599711052207</v>
+        <v>-0.03403166925542195</v>
       </c>
       <c r="D53">
-        <v>-0.04995357048677204</v>
+        <v>-0.006469862352619564</v>
       </c>
       <c r="E53">
-        <v>-0.04953713117482453</v>
+        <v>0.05386296311614041</v>
       </c>
       <c r="F53">
-        <v>-0.01508439864992639</v>
+        <v>0.04078255157765768</v>
       </c>
       <c r="G53">
-        <v>-0.03384589756793228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02142906069572973</v>
+      </c>
+      <c r="H53">
+        <v>0.002511145129359627</v>
+      </c>
+      <c r="I53">
+        <v>-0.03910405472173292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02696527928649287</v>
+        <v>-0.02559328862494481</v>
       </c>
       <c r="C54">
-        <v>-0.004218705134259632</v>
+        <v>-0.002663872011412262</v>
       </c>
       <c r="D54">
-        <v>-0.02237982615985678</v>
+        <v>0.004799971508500245</v>
       </c>
       <c r="E54">
-        <v>0.03640850477861084</v>
+        <v>0.02628261802352826</v>
       </c>
       <c r="F54">
-        <v>-0.04594174634703452</v>
+        <v>-0.03474622661346107</v>
       </c>
       <c r="G54">
-        <v>0.01085447629257573</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05098930597544871</v>
+      </c>
+      <c r="H54">
+        <v>-0.04292536330796574</v>
+      </c>
+      <c r="I54">
+        <v>-0.02964018836696168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.102268090175366</v>
+        <v>-0.09965658376482402</v>
       </c>
       <c r="C55">
-        <v>-0.0006169502233198986</v>
+        <v>-0.02420317553483639</v>
       </c>
       <c r="D55">
-        <v>-0.036133302554555</v>
+        <v>0.01132726191673691</v>
       </c>
       <c r="E55">
-        <v>-0.0131671269713701</v>
+        <v>0.0352983016576276</v>
       </c>
       <c r="F55">
-        <v>0.03871320780840393</v>
+        <v>0.02715506822747341</v>
       </c>
       <c r="G55">
-        <v>-0.006891279362168752</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.008374677670220819</v>
+      </c>
+      <c r="H55">
+        <v>-0.008742813549880223</v>
+      </c>
+      <c r="I55">
+        <v>-0.01810942997771947</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1793272613756562</v>
+        <v>-0.1681969214075676</v>
       </c>
       <c r="C56">
-        <v>0.01100503875486719</v>
+        <v>-0.01161422114809857</v>
       </c>
       <c r="D56">
-        <v>-0.08795188391640975</v>
+        <v>-0.001518192630832608</v>
       </c>
       <c r="E56">
-        <v>-0.1008064625134169</v>
+        <v>0.08837738945730399</v>
       </c>
       <c r="F56">
-        <v>0.07015461947688041</v>
+        <v>0.08482917857447272</v>
       </c>
       <c r="G56">
-        <v>-0.04300026268379035</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.03261210442552132</v>
+      </c>
+      <c r="H56">
+        <v>0.04522951083942435</v>
+      </c>
+      <c r="I56">
+        <v>-0.0321398822545756</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08919833577859991</v>
+        <v>-0.06597990858373595</v>
       </c>
       <c r="C57">
-        <v>-0.02953388327231908</v>
+        <v>-0.03567674335474167</v>
       </c>
       <c r="D57">
-        <v>-0.02853307631926323</v>
+        <v>-0.01629267340016929</v>
       </c>
       <c r="E57">
-        <v>0.04341976917283278</v>
+        <v>0.009337632095944903</v>
       </c>
       <c r="F57">
-        <v>-0.0466200133248856</v>
+        <v>-0.06521801730573831</v>
       </c>
       <c r="G57">
-        <v>-0.02591174549410094</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02617866961930086</v>
+      </c>
+      <c r="H57">
+        <v>-0.03270247898769137</v>
+      </c>
+      <c r="I57">
+        <v>0.008153584460535535</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1864079729747568</v>
+        <v>-0.2037242012792546</v>
       </c>
       <c r="C58">
-        <v>-0.03211558960676827</v>
+        <v>-0.1050159328036773</v>
       </c>
       <c r="D58">
-        <v>0.02029366763658393</v>
+        <v>-0.0825782681785143</v>
       </c>
       <c r="E58">
-        <v>0.1274936189055676</v>
+        <v>-0.005204327451676291</v>
       </c>
       <c r="F58">
-        <v>0.04997347328701089</v>
+        <v>-0.2305876516812997</v>
       </c>
       <c r="G58">
-        <v>-0.07035382915093601</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1694676316344157</v>
+      </c>
+      <c r="H58">
+        <v>-0.3784679313256787</v>
+      </c>
+      <c r="I58">
+        <v>0.1916597288969785</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.01990845512683548</v>
+        <v>-0.04846911110328101</v>
       </c>
       <c r="C59">
-        <v>0.1964382344300431</v>
+        <v>0.1944858679780603</v>
       </c>
       <c r="D59">
-        <v>0.008158558828948888</v>
+        <v>-0.02675345606896318</v>
       </c>
       <c r="E59">
-        <v>0.06141729569645851</v>
+        <v>-0.01781817348780346</v>
       </c>
       <c r="F59">
-        <v>-0.01192885662963934</v>
+        <v>-0.07491110649409609</v>
       </c>
       <c r="G59">
-        <v>0.007062296649526549</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001257928179130799</v>
+      </c>
+      <c r="H59">
+        <v>0.02430651593297505</v>
+      </c>
+      <c r="I59">
+        <v>-0.06066721483446381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1939229238728487</v>
+        <v>-0.1874999518331973</v>
       </c>
       <c r="C60">
-        <v>0.09376068639226563</v>
+        <v>0.0448381927581466</v>
       </c>
       <c r="D60">
-        <v>0.005416957782859239</v>
+        <v>-0.05139730013742308</v>
       </c>
       <c r="E60">
-        <v>0.185648590895636</v>
+        <v>0.005657792427755448</v>
       </c>
       <c r="F60">
-        <v>-0.04669936341550332</v>
+        <v>-0.214199077061557</v>
       </c>
       <c r="G60">
-        <v>0.011639848393596</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06945827825206778</v>
+      </c>
+      <c r="H60">
+        <v>0.2734666694275996</v>
+      </c>
+      <c r="I60">
+        <v>0.09814294925499104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04387953760500345</v>
+        <v>-0.03687486942792206</v>
       </c>
       <c r="C61">
-        <v>-0.0126083354365282</v>
+        <v>-0.02789860007718754</v>
       </c>
       <c r="D61">
-        <v>0.0001441141224244063</v>
+        <v>0.001755720653593758</v>
       </c>
       <c r="E61">
-        <v>0.03842165094092003</v>
+        <v>0.007175503183674245</v>
       </c>
       <c r="F61">
-        <v>-0.005521111781890636</v>
+        <v>-0.03880781715536707</v>
       </c>
       <c r="G61">
-        <v>0.006280235710716912</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0110788943160366</v>
+      </c>
+      <c r="H61">
+        <v>0.0034257524588933</v>
+      </c>
+      <c r="I61">
+        <v>0.0398585040069008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04261784655818871</v>
+        <v>-0.03063101913936847</v>
       </c>
       <c r="C63">
-        <v>-0.01264055026385443</v>
+        <v>-0.02004440292947696</v>
       </c>
       <c r="D63">
-        <v>-0.01659617149275966</v>
+        <v>-0.0007701603863725722</v>
       </c>
       <c r="E63">
-        <v>0.04345143060850364</v>
+        <v>0.01411835391946503</v>
       </c>
       <c r="F63">
-        <v>-0.01757850311581794</v>
+        <v>-0.02868810438732457</v>
       </c>
       <c r="G63">
-        <v>-0.01320875936337396</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01221325262128743</v>
+      </c>
+      <c r="H63">
+        <v>-0.04882208583497255</v>
+      </c>
+      <c r="I63">
+        <v>-0.03495015132188103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.07524283251792005</v>
+        <v>-0.05725366568020044</v>
       </c>
       <c r="C64">
-        <v>-0.05407449091655431</v>
+        <v>-0.04785259463576173</v>
       </c>
       <c r="D64">
-        <v>-0.06025484674149129</v>
+        <v>0.01639954970725382</v>
       </c>
       <c r="E64">
-        <v>0.05641141626452554</v>
+        <v>0.04525285736198775</v>
       </c>
       <c r="F64">
-        <v>-0.03506653783220348</v>
+        <v>-0.04931446590342512</v>
       </c>
       <c r="G64">
-        <v>0.057699297628191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05471257095223871</v>
+      </c>
+      <c r="H64">
+        <v>0.01262829048218547</v>
+      </c>
+      <c r="I64">
+        <v>-0.03550123355249622</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01968087231390349</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01271751884227019</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.007067890126498548</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.007004517695941687</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0005421155372144027</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02147818146922421</v>
+      </c>
+      <c r="H65">
+        <v>0.005919915234895782</v>
+      </c>
+      <c r="I65">
+        <v>0.01640071024137288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.08856535305187502</v>
+        <v>-0.06830651445914078</v>
       </c>
       <c r="C66">
-        <v>-0.03505244066794032</v>
+        <v>-0.05588580695674723</v>
       </c>
       <c r="D66">
-        <v>-0.03886975629805374</v>
+        <v>-0.01193574360682546</v>
       </c>
       <c r="E66">
-        <v>0.08160844655904236</v>
+        <v>0.04846686965582213</v>
       </c>
       <c r="F66">
-        <v>-0.03392252760151446</v>
+        <v>-0.06945648865391855</v>
       </c>
       <c r="G66">
-        <v>0.009518840185132419</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01485134363399132</v>
+      </c>
+      <c r="H66">
+        <v>-0.0009051357215769523</v>
+      </c>
+      <c r="I66">
+        <v>0.03303813028778972</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0614649197182217</v>
+        <v>-0.04735877011389663</v>
       </c>
       <c r="C67">
-        <v>0.01242063546513394</v>
+        <v>0.00509817538107998</v>
       </c>
       <c r="D67">
-        <v>-0.01213152181701034</v>
+        <v>-0.002293036946520311</v>
       </c>
       <c r="E67">
-        <v>0.01658257711062421</v>
+        <v>0.009119357375235893</v>
       </c>
       <c r="F67">
-        <v>0.005322175144653105</v>
+        <v>-0.03691165255490221</v>
       </c>
       <c r="G67">
-        <v>0.02394583957875514</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03538897078382405</v>
+      </c>
+      <c r="H67">
+        <v>0.007288835863337756</v>
+      </c>
+      <c r="I67">
+        <v>0.03811480674982897</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.02852814356979371</v>
+        <v>-0.0566588198900559</v>
       </c>
       <c r="C68">
-        <v>0.2463582557621454</v>
+        <v>0.2334779452901186</v>
       </c>
       <c r="D68">
-        <v>0.03114520206831253</v>
+        <v>-0.02753948984935729</v>
       </c>
       <c r="E68">
-        <v>0.04492886880462604</v>
+        <v>-0.03543795133441377</v>
       </c>
       <c r="F68">
-        <v>-0.02096998995065464</v>
+        <v>-0.05709805892091106</v>
       </c>
       <c r="G68">
-        <v>-0.01810754479896784</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.004765559117868427</v>
+      </c>
+      <c r="H68">
+        <v>0.01291415345671317</v>
+      </c>
+      <c r="I68">
+        <v>-0.1631603895336952</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07107446805511693</v>
+        <v>-0.0721254822046121</v>
       </c>
       <c r="C69">
-        <v>-0.0171562905398251</v>
+        <v>-0.0210688884377749</v>
       </c>
       <c r="D69">
-        <v>-0.02626332301463207</v>
+        <v>-0.00573966251346645</v>
       </c>
       <c r="E69">
-        <v>-0.01279682031487476</v>
+        <v>0.03110947737854153</v>
       </c>
       <c r="F69">
-        <v>-0.01546845808605746</v>
+        <v>0.002206299745224449</v>
       </c>
       <c r="G69">
-        <v>-0.02505670080523623</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02590266145463239</v>
+      </c>
+      <c r="H69">
+        <v>-0.0265343175887556</v>
+      </c>
+      <c r="I69">
+        <v>0.002514046295614292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.02019577012746405</v>
+        <v>-0.05504357191272656</v>
       </c>
       <c r="C71">
-        <v>0.2807539889963351</v>
+        <v>0.2504963024200308</v>
       </c>
       <c r="D71">
-        <v>0.03654811902952053</v>
+        <v>-0.03342681921717737</v>
       </c>
       <c r="E71">
-        <v>0.0778024497022808</v>
+        <v>-0.05821293425528872</v>
       </c>
       <c r="F71">
-        <v>-0.03006078378854914</v>
+        <v>-0.08264656561382118</v>
       </c>
       <c r="G71">
-        <v>-0.01558109119401107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01530726989823234</v>
+      </c>
+      <c r="H71">
+        <v>0.01998518213905207</v>
+      </c>
+      <c r="I71">
+        <v>-0.1350267689797882</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1230218146100622</v>
+        <v>-0.125158757686261</v>
       </c>
       <c r="C72">
-        <v>0.005697153375411711</v>
+        <v>-0.03385650109045525</v>
       </c>
       <c r="D72">
-        <v>-0.04446693602994092</v>
+        <v>-0.005529649658263502</v>
       </c>
       <c r="E72">
-        <v>0.08737351196831383</v>
+        <v>0.0618087729874955</v>
       </c>
       <c r="F72">
-        <v>0.02187616322034826</v>
+        <v>-0.08424095687204659</v>
       </c>
       <c r="G72">
-        <v>-0.005237504633021133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0399339741702661</v>
+      </c>
+      <c r="H72">
+        <v>0.02170022345265041</v>
+      </c>
+      <c r="I72">
+        <v>0.0849993878841984</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2954982457153604</v>
+        <v>-0.2702617341881935</v>
       </c>
       <c r="C73">
-        <v>0.173073640850425</v>
+        <v>0.06690842770160278</v>
       </c>
       <c r="D73">
-        <v>0.07663384281206866</v>
+        <v>-0.09240757455920687</v>
       </c>
       <c r="E73">
-        <v>0.3277113475087911</v>
+        <v>-0.03928190975016752</v>
       </c>
       <c r="F73">
-        <v>-0.004165883348568067</v>
+        <v>-0.3201003548793096</v>
       </c>
       <c r="G73">
-        <v>0.04898217247781256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1745727212283121</v>
+      </c>
+      <c r="H73">
+        <v>0.4615024268672845</v>
+      </c>
+      <c r="I73">
+        <v>0.2875708941781859</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1620586761030791</v>
+        <v>-0.1499978354490564</v>
       </c>
       <c r="C74">
-        <v>-0.003647725281000012</v>
+        <v>-0.02621984091857109</v>
       </c>
       <c r="D74">
-        <v>-0.04594196725409883</v>
+        <v>-0.01355514820315506</v>
       </c>
       <c r="E74">
-        <v>-0.03158072210691733</v>
+        <v>0.05096994880756368</v>
       </c>
       <c r="F74">
-        <v>0.0307086477067175</v>
+        <v>0.05353961127284301</v>
       </c>
       <c r="G74">
-        <v>-0.07197208275623231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01894269315903023</v>
+      </c>
+      <c r="H74">
+        <v>0.03146530192640367</v>
+      </c>
+      <c r="I74">
+        <v>-0.02040943738836881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2336966881604917</v>
+        <v>-0.2418929926855051</v>
       </c>
       <c r="C75">
-        <v>-0.003699090484920079</v>
+        <v>-0.0252048794836872</v>
       </c>
       <c r="D75">
-        <v>-0.07548848309489369</v>
+        <v>-0.02919643020865811</v>
       </c>
       <c r="E75">
-        <v>-0.1239843440584541</v>
+        <v>0.1053993541332135</v>
       </c>
       <c r="F75">
-        <v>0.002625893052340386</v>
+        <v>0.1393272323958284</v>
       </c>
       <c r="G75">
-        <v>-0.05288687758196934</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004099353456841558</v>
+      </c>
+      <c r="H75">
+        <v>0.02426711323346428</v>
+      </c>
+      <c r="I75">
+        <v>-0.08090809002912645</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2466858842454078</v>
+        <v>-0.2669492100489044</v>
       </c>
       <c r="C76">
-        <v>0.009729761655650024</v>
+        <v>-0.01155251264052509</v>
       </c>
       <c r="D76">
-        <v>-0.1143576643783358</v>
+        <v>0.009894080949707089</v>
       </c>
       <c r="E76">
-        <v>-0.1309107362446925</v>
+        <v>0.1322846199750419</v>
       </c>
       <c r="F76">
-        <v>0.05629257523567493</v>
+        <v>0.1868874327195155</v>
       </c>
       <c r="G76">
-        <v>-0.06125058839689111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05867065569773267</v>
+      </c>
+      <c r="H76">
+        <v>0.04826549427410019</v>
+      </c>
+      <c r="I76">
+        <v>-0.04761417532271787</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1369974631746863</v>
+        <v>-0.1261885621366207</v>
       </c>
       <c r="C77">
-        <v>-0.06046977765869565</v>
+        <v>-0.07342969836355803</v>
       </c>
       <c r="D77">
-        <v>0.03826363637977903</v>
+        <v>-0.004060357474426164</v>
       </c>
       <c r="E77">
-        <v>0.1467936596432259</v>
+        <v>-0.02877667736335299</v>
       </c>
       <c r="F77">
-        <v>-0.007718104168861943</v>
+        <v>-0.1569500428410237</v>
       </c>
       <c r="G77">
-        <v>0.05701630371413921</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.002865744194070394</v>
+      </c>
+      <c r="H77">
+        <v>-0.2231038616266525</v>
+      </c>
+      <c r="I77">
+        <v>-0.24707890329096</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08638138544272876</v>
+        <v>-0.07606181721594041</v>
       </c>
       <c r="C78">
-        <v>-0.05524202976641659</v>
+        <v>-0.07774126814573641</v>
       </c>
       <c r="D78">
-        <v>0.009178001372239175</v>
+        <v>0.009154797579749236</v>
       </c>
       <c r="E78">
-        <v>0.0540829306226078</v>
+        <v>0.01385605290054702</v>
       </c>
       <c r="F78">
-        <v>-0.01187763086904308</v>
+        <v>-0.07132397536030795</v>
       </c>
       <c r="G78">
-        <v>-0.008588731319368936</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01050541054330876</v>
+      </c>
+      <c r="H78">
+        <v>-0.02076318535029264</v>
+      </c>
+      <c r="I78">
+        <v>-0.031849846034721</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05455523803779248</v>
+        <v>-0.13885149477557</v>
       </c>
       <c r="C80">
-        <v>-0.02873215234402281</v>
+        <v>0.08396936246810265</v>
       </c>
       <c r="D80">
-        <v>0.08280532409915173</v>
+        <v>0.9719131070548377</v>
       </c>
       <c r="E80">
-        <v>-0.05322839704940031</v>
+        <v>-0.0467681164487823</v>
       </c>
       <c r="F80">
-        <v>0.5697014326360647</v>
+        <v>-0.0446842642221122</v>
       </c>
       <c r="G80">
-        <v>0.7756178128225212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04595003381115662</v>
+      </c>
+      <c r="H80">
+        <v>0.0518958517684335</v>
+      </c>
+      <c r="I80">
+        <v>0.03284784650630795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1632588515967158</v>
+        <v>-0.1795102823340148</v>
       </c>
       <c r="C81">
-        <v>0.006157158892280081</v>
+        <v>-0.003005515870294543</v>
       </c>
       <c r="D81">
-        <v>-0.06441156598974362</v>
+        <v>-0.008555692926827249</v>
       </c>
       <c r="E81">
-        <v>-0.1585248403329541</v>
+        <v>0.0836098197026387</v>
       </c>
       <c r="F81">
-        <v>0.05000702195565442</v>
+        <v>0.1553168661281875</v>
       </c>
       <c r="G81">
-        <v>-0.08114971984555366</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.03059054541961359</v>
+      </c>
+      <c r="H81">
+        <v>0.01381958172097016</v>
+      </c>
+      <c r="I81">
+        <v>-0.05642561351075177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09483287434798987</v>
+        <v>-0.06885919538254766</v>
       </c>
       <c r="C83">
-        <v>-0.06572205616470336</v>
+        <v>-0.05615191218621608</v>
       </c>
       <c r="D83">
-        <v>0.06799319182909222</v>
+        <v>-0.01082360144575193</v>
       </c>
       <c r="E83">
-        <v>0.01538869439813669</v>
+        <v>-0.03525838005462184</v>
       </c>
       <c r="F83">
-        <v>-0.06450514107480804</v>
+        <v>-0.04399641135283659</v>
       </c>
       <c r="G83">
-        <v>0.00345764184982939</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05845107645386943</v>
+      </c>
+      <c r="H83">
+        <v>-0.02542536089327154</v>
+      </c>
+      <c r="I83">
+        <v>-0.02242976762056779</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2361882285719094</v>
+        <v>-0.2500613807632547</v>
       </c>
       <c r="C85">
-        <v>-0.05617002906207894</v>
+        <v>-0.04946355214282432</v>
       </c>
       <c r="D85">
-        <v>-0.07181370398255256</v>
+        <v>-0.006919725677840752</v>
       </c>
       <c r="E85">
-        <v>-0.1653030101306593</v>
+        <v>0.1018545345503214</v>
       </c>
       <c r="F85">
-        <v>0.04785570221199999</v>
+        <v>0.1885259683659061</v>
       </c>
       <c r="G85">
-        <v>-0.04033968213839716</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.01102247057159499</v>
+      </c>
+      <c r="H85">
+        <v>-0.01927969012792136</v>
+      </c>
+      <c r="I85">
+        <v>-0.05497280057322282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04001456481452069</v>
+        <v>-0.02562782570650714</v>
       </c>
       <c r="C86">
-        <v>-0.05722667468234853</v>
+        <v>-0.06043992204341728</v>
       </c>
       <c r="D86">
-        <v>-0.02077144206066898</v>
+        <v>0.003044238685665084</v>
       </c>
       <c r="E86">
-        <v>0.06367773675536254</v>
+        <v>0.01529805407521152</v>
       </c>
       <c r="F86">
-        <v>0.002529209471283921</v>
+        <v>-0.06381258013227137</v>
       </c>
       <c r="G86">
-        <v>-0.01177532769751454</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.006502274694003987</v>
+      </c>
+      <c r="H86">
+        <v>-0.06776290439094537</v>
+      </c>
+      <c r="I86">
+        <v>-0.0280824938985519</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02854640072637595</v>
+        <v>-0.03356377057735421</v>
       </c>
       <c r="C87">
-        <v>0.05435393855950211</v>
+        <v>0.0091785436800396</v>
       </c>
       <c r="D87">
-        <v>0.004385311944906638</v>
+        <v>-0.002294126471415465</v>
       </c>
       <c r="E87">
-        <v>0.09510951706652809</v>
+        <v>0.004164960266333743</v>
       </c>
       <c r="F87">
-        <v>0.01811270800948174</v>
+        <v>-0.1004250383308153</v>
       </c>
       <c r="G87">
-        <v>-0.01494908633395776</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02417980682790898</v>
+      </c>
+      <c r="H87">
+        <v>-0.01781647069606328</v>
+      </c>
+      <c r="I87">
+        <v>0.01205282266823775</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03921978449823425</v>
+        <v>-0.03033189648439849</v>
       </c>
       <c r="C88">
-        <v>-0.03139947443898617</v>
+        <v>-0.01909559371066661</v>
       </c>
       <c r="D88">
-        <v>-0.006782438739593785</v>
+        <v>0.01067058424128658</v>
       </c>
       <c r="E88">
-        <v>-0.009521276441482384</v>
+        <v>0.01109572008395205</v>
       </c>
       <c r="F88">
-        <v>0.00884131909072852</v>
+        <v>0.01602021097765892</v>
       </c>
       <c r="G88">
-        <v>-0.007597449797377121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03934172433823582</v>
+      </c>
+      <c r="H88">
+        <v>-0.0340488910522545</v>
+      </c>
+      <c r="I88">
+        <v>0.01980671397355316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.0272481415616658</v>
+        <v>-0.08633381960950495</v>
       </c>
       <c r="C89">
-        <v>0.3868188902639169</v>
+        <v>0.3809980543421884</v>
       </c>
       <c r="D89">
-        <v>0.1094116805416267</v>
+        <v>-0.06254037584741902</v>
       </c>
       <c r="E89">
-        <v>-0.001446623767575985</v>
+        <v>-0.0823395737882236</v>
       </c>
       <c r="F89">
-        <v>-0.02924792811820695</v>
+        <v>-0.04020944842004839</v>
       </c>
       <c r="G89">
-        <v>-0.007975142712791768</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0366754590469208</v>
+      </c>
+      <c r="H89">
+        <v>-0.04883090976305668</v>
+      </c>
+      <c r="I89">
+        <v>-0.2521532823099644</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.02355894569138143</v>
+        <v>-0.06039401854783968</v>
       </c>
       <c r="C90">
-        <v>0.302789685166786</v>
+        <v>0.3253419287693966</v>
       </c>
       <c r="D90">
-        <v>0.06126188031810129</v>
+        <v>-0.03521286495030144</v>
       </c>
       <c r="E90">
-        <v>0.04582009942851272</v>
+        <v>-0.06659149016723565</v>
       </c>
       <c r="F90">
-        <v>-0.04166994128228309</v>
+        <v>-0.03999285093636818</v>
       </c>
       <c r="G90">
-        <v>-0.00817617370775563</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02231150816593816</v>
+      </c>
+      <c r="H90">
+        <v>-0.009569202218011637</v>
+      </c>
+      <c r="I90">
+        <v>-0.2186751677244574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2734284932934303</v>
+        <v>-0.2912874128184442</v>
       </c>
       <c r="C91">
-        <v>-0.04618885208944343</v>
+        <v>-0.04578799614762526</v>
       </c>
       <c r="D91">
-        <v>-0.08021290542353243</v>
+        <v>-0.01506156773770797</v>
       </c>
       <c r="E91">
-        <v>-0.2709832845107235</v>
+        <v>0.09400868579685334</v>
       </c>
       <c r="F91">
-        <v>0.06481130424298348</v>
+        <v>0.2797360007733324</v>
       </c>
       <c r="G91">
-        <v>-0.02578755066507324</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02755767470131334</v>
+      </c>
+      <c r="H91">
+        <v>0.01580637839933137</v>
+      </c>
+      <c r="I91">
+        <v>-0.0911358952003445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.05599890316214907</v>
+        <v>-0.1224843620202735</v>
       </c>
       <c r="C92">
-        <v>0.3986913994869495</v>
+        <v>0.4192970059186821</v>
       </c>
       <c r="D92">
-        <v>0.1695997725574295</v>
+        <v>-0.02108418219243294</v>
       </c>
       <c r="E92">
-        <v>-0.1029356389968107</v>
+        <v>-0.1073416209835026</v>
       </c>
       <c r="F92">
-        <v>0.09115451135883147</v>
+        <v>0.122016942562896</v>
       </c>
       <c r="G92">
-        <v>0.03997953987944753</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08643796890899148</v>
+      </c>
+      <c r="H92">
+        <v>-0.4409553046323921</v>
+      </c>
+      <c r="I92">
+        <v>0.6627331762219612</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.01411875761829014</v>
+        <v>-0.06936687070931713</v>
       </c>
       <c r="C93">
-        <v>0.3673117732960489</v>
+        <v>0.3905704772806872</v>
       </c>
       <c r="D93">
-        <v>0.09344418049292842</v>
+        <v>-0.05609260469933947</v>
       </c>
       <c r="E93">
-        <v>-0.03168677185189108</v>
+        <v>-0.1057175460152499</v>
       </c>
       <c r="F93">
-        <v>0.007774627075395449</v>
+        <v>-0.01094356527942991</v>
       </c>
       <c r="G93">
-        <v>0.02606670333630043</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03517621468557845</v>
+      </c>
+      <c r="H93">
+        <v>0.02196248999479857</v>
+      </c>
+      <c r="I93">
+        <v>-0.1507965753285989</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2773218958881758</v>
+        <v>-0.3097151775494286</v>
       </c>
       <c r="C94">
-        <v>0.07698189467830645</v>
+        <v>0.03185447964180423</v>
       </c>
       <c r="D94">
-        <v>-0.05846421732807965</v>
+        <v>-0.04553416978793597</v>
       </c>
       <c r="E94">
-        <v>-0.3761392538872162</v>
+        <v>0.1324742216230462</v>
       </c>
       <c r="F94">
-        <v>0.3018868858330542</v>
+        <v>0.3444747297543158</v>
       </c>
       <c r="G94">
-        <v>-0.2610462098426866</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2034525622012705</v>
+      </c>
+      <c r="H94">
+        <v>-0.1211508288014254</v>
+      </c>
+      <c r="I94">
+        <v>-0.02761643070661994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1879427559249827</v>
+        <v>-0.1351599397561467</v>
       </c>
       <c r="C95">
-        <v>0.007620938166573671</v>
+        <v>-0.04421205738534104</v>
       </c>
       <c r="D95">
-        <v>-0.007761351433598243</v>
+        <v>-0.09510804814855242</v>
       </c>
       <c r="E95">
-        <v>-0.3553646865061063</v>
+        <v>0.0383557724239816</v>
       </c>
       <c r="F95">
-        <v>-0.7052997979574003</v>
+        <v>0.07766762388272051</v>
       </c>
       <c r="G95">
-        <v>0.4914047178583994</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8960624929645806</v>
+      </c>
+      <c r="H95">
+        <v>0.1685874973120139</v>
+      </c>
+      <c r="I95">
+        <v>0.1078846484727221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2259321830654366</v>
+        <v>-0.2071660180464678</v>
       </c>
       <c r="C98">
-        <v>0.1086881213387892</v>
+        <v>0.05322946733684646</v>
       </c>
       <c r="D98">
-        <v>0.04055494503674328</v>
+        <v>-0.06500724517802338</v>
       </c>
       <c r="E98">
-        <v>0.08914102165219005</v>
+        <v>-0.0314627222700195</v>
       </c>
       <c r="F98">
-        <v>-0.04983413081236026</v>
+        <v>-0.1704785807130769</v>
       </c>
       <c r="G98">
-        <v>-0.008243765774937932</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08268747337725307</v>
+      </c>
+      <c r="H98">
+        <v>0.3142998711602749</v>
+      </c>
+      <c r="I98">
+        <v>0.1629583594315601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02290524557135692</v>
+        <v>-0.01707480164282573</v>
       </c>
       <c r="C101">
-        <v>-0.02349969761598296</v>
+        <v>-0.0282702535008706</v>
       </c>
       <c r="D101">
-        <v>-0.03045009105789264</v>
+        <v>0.006268872169468731</v>
       </c>
       <c r="E101">
-        <v>0.03513370524257593</v>
+        <v>0.03387726848038073</v>
       </c>
       <c r="F101">
-        <v>-0.01703280553556365</v>
+        <v>-0.0626526368411241</v>
       </c>
       <c r="G101">
-        <v>-0.005030741600015983</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01585088532047915</v>
+      </c>
+      <c r="H101">
+        <v>-0.111293829790481</v>
+      </c>
+      <c r="I101">
+        <v>0.05217410642012255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1137462721230995</v>
+        <v>-0.1207985595139147</v>
       </c>
       <c r="C102">
-        <v>-0.02210984786808559</v>
+        <v>-0.02072927687266402</v>
       </c>
       <c r="D102">
-        <v>-0.04454527672799837</v>
+        <v>0.002604995222263319</v>
       </c>
       <c r="E102">
-        <v>-0.0913568179126792</v>
+        <v>0.05607443415334053</v>
       </c>
       <c r="F102">
-        <v>0.0115614414371483</v>
+        <v>0.1000088863850921</v>
       </c>
       <c r="G102">
-        <v>0.01159200876802118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01323109334379383</v>
+      </c>
+      <c r="H102">
+        <v>0.01841472344337317</v>
+      </c>
+      <c r="I102">
+        <v>-0.05909749088383541</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01626219004061067</v>
+        <v>-0.03103927146595417</v>
       </c>
       <c r="C103">
-        <v>-0.003820757409374776</v>
+        <v>-0.00752502678764803</v>
       </c>
       <c r="D103">
-        <v>-0.0157097002870003</v>
+        <v>0.008450529936641749</v>
       </c>
       <c r="E103">
-        <v>-0.02491688724297906</v>
+        <v>0.02138182374319099</v>
       </c>
       <c r="F103">
-        <v>0.003915987277777182</v>
+        <v>0.02716244763688341</v>
       </c>
       <c r="G103">
-        <v>-0.01106032795279494</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01158683367532623</v>
+      </c>
+      <c r="H103">
+        <v>-0.01246287106214037</v>
+      </c>
+      <c r="I103">
+        <v>-0.02478425987921049</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
